--- a/xlsx/美国各州州歌列表_intext.xlsx
+++ b/xlsx/美国各州州歌列表_intext.xlsx
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%8D%89%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>藍草音樂</t>
+    <t>蓝草音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Baltimore_Sun</t>
